--- a/biology/Médecine/Médecine_physique_et_de_réadaptation/Médecine_physique_et_de_réadaptation.xlsx
+++ b/biology/Médecine/Médecine_physique_et_de_réadaptation/Médecine_physique_et_de_réadaptation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_physique_et_de_r%C3%A9adaptation</t>
+          <t>Médecine_physique_et_de_réadaptation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La médecine physique et de réadaptation (MPR) est une spécialité médicale orientée vers la récupération de capacités fonctionnelles et de qualité de vie des patients atteints de handicap, congénital ou acquis, par accident par exemple. Les médecins qui ont approfondi ces études, souvent appelés « médecins rééducateurs »[1], « physiatres » ou « médecins physiques », sont qualifiés en médecine physique et de réadaptation (MPR). Les rééducateurs sont particulièrement spécialisés dans les techniques de récupération d'une fonction optimale, particulièrement chez les sujets souffrant de lésion musculaire, ostéo-articulaire, cardio-respiratoire ou cérébrale (par exemple après un accident vasculaire cérébral).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médecine physique et de réadaptation (MPR) est une spécialité médicale orientée vers la récupération de capacités fonctionnelles et de qualité de vie des patients atteints de handicap, congénital ou acquis, par accident par exemple. Les médecins qui ont approfondi ces études, souvent appelés « médecins rééducateurs », « physiatres » ou « médecins physiques », sont qualifiés en médecine physique et de réadaptation (MPR). Les rééducateurs sont particulièrement spécialisés dans les techniques de récupération d'une fonction optimale, particulièrement chez les sujets souffrant de lésion musculaire, ostéo-articulaire, cardio-respiratoire ou cérébrale (par exemple après un accident vasculaire cérébral).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_physique_et_de_r%C3%A9adaptation</t>
+          <t>Médecine_physique_et_de_réadaptation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique et définition de la spécialité médicale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La médecine physique tire son nom des moyens physiques (mécaniques, électriques, thermiques…) qu'elle utilisait et y était facilement réduite. On l'appelait également physiothérapie, à ne pas confondre avec la physiotherapy anglo-saxonne, qui est une discipline à part entière mais non médicale[2][source insuffisante]. Actuellement, on pourrait la définir comme la discipline qui traite des diagnostics et traitements conservateurs des pathologies handicapantes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médecine physique tire son nom des moyens physiques (mécaniques, électriques, thermiques…) qu'elle utilisait et y était facilement réduite. On l'appelait également physiothérapie, à ne pas confondre avec la physiotherapy anglo-saxonne, qui est une discipline à part entière mais non médicale[source insuffisante]. Actuellement, on pourrait la définir comme la discipline qui traite des diagnostics et traitements conservateurs des pathologies handicapantes.
 Cet intitulé officiel de "médecine physique et réadaptation" est utilisé en France depuis 1998, remplaçant celui de "Rééducation et réadaptation fonctionnelle". Il correspond à la désignation "Physical medicine and rehabilitation" utilisée dans tous les pays anglophones.
 La médecine physique et de réadaptation est impliquée dans différents centres et programmes notamment en milieu universitaire : centre de lutte contre la douleur (CLCD) et consultation de la douleur chronique (CDC), centre de référence des maladies neuromusculaires, centre de référence en fatigue chronique, centre de médecine du sport, consultation pluridisciplinaire du pied diabétique, école du dos.
 La réadaptation après un traumatisme s'effectue en soins de suite et de réadaptation (SSR) des hôpitaux et établissements spécialisés.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_physique_et_de_r%C3%A9adaptation</t>
+          <t>Médecine_physique_et_de_réadaptation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Pourquoi et comment interviennent les médecins rééducateurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier rôle du médecin spécialiste en médecine physique et de réadaptation (MPR) est de concevoir et superviser les programmes de rééducation et de réadaptation des patients victimes d’accidents ou de pathologies graves qui nécessitent une prise en charge multidisciplinaire. Différents professionnels s'y emploient en équipe : ergothérapeutes, kinésithérapeutes (ou physiothérapeutes), thérapeutes en réadaptation physique (Canada), enseignants en activités physiques adaptées (APA),  (neuro)psychologues, logopèdes (ou orthophonistes), psychomotriciens, podologues, infirmières, assistantes sociales, orthoprothésistes, psychologues, neuropsychologues… Ces équipes collaborent avec beaucoup d'autres disciplines médicales : médecine générale, neurologie, orthopédie-traumatologie, médecine interne… Le rôle du spécialiste en médecine physique est également de gérer les complications de toutes sortes des patients hospitalisés.
 Le but de cette spécialité vise à minimiser les conséquences de l’accident ou de la maladie, tant sur le plan fonctionnel et physique que psychologique et social, afin de réintégrer le patient à la place qui lui convient le mieux dans la société ou de lui conserver sa place. La médecine physique se pratique en privé ou à l'hôpital, en consultation ambulatoire ou en hospitalisation de jour ou complète.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_physique_et_de_r%C3%A9adaptation</t>
+          <t>Médecine_physique_et_de_réadaptation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Projets de la rééducation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ils pourraient se résumer par la « règle des 3 R » :
 la rééducation entend la récupération ad integrum de la fonction ;
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_physique_et_de_r%C3%A9adaptation</t>
+          <t>Médecine_physique_et_de_réadaptation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Ligne de conduite générale d'une hospitalisation en unité de soins de suite et de réadaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Entrée, anamnèse et examen clinique, plan de traitement, bilans (physique, fonctionnel, médical, etc.), anamnèse sociale systématique, rééducation ou traitement médicamenteux, conservateur ou invasif, réunion pluridisciplinaire, réunion de famille, visite à domicile, journée ou week-end thérapeutique, sortie.
 </t>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_physique_et_de_r%C3%A9adaptation</t>
+          <t>Médecine_physique_et_de_réadaptation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les médecins de MPR suivent une formation spécialisée de 4 ans (internat) après avoir effectué 6 ans d'études de médecine.
 </t>
